--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-08_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-08_end.xlsx
@@ -804,7 +804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  It’s just as you said. They used us as bait, and a battle ensued.
+    <t xml:space="preserve">[name="Patriot"]  It's just as you said. They used us as bait, and a battle ensued.
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  They had their reasons for doing this, and I also know exactly what they were. Knowing they had a legitimate reason, I couldn’t possibly have gotten my hopes up. 
+    <t xml:space="preserve">[name="Talulah"]  They had their reasons for doing this, and I also know exactly what they were. Knowing they had a legitimate reason, I couldn't possibly have gotten my hopes up. 
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  They betrayed their brothers-in-arms for a moment of peace. If you make excuses for them, you’re only putting your warriors in harm’s way. 
+    <t xml:space="preserve">[name="Patriot"]  They betrayed their brothers-in-arms for a moment of peace. If you make excuses for them, you're only putting your warriors in harm's way. 
 </t>
   </si>
   <si>
@@ -836,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You want every last person on your team to be absolutely perfect? That’s impossible. You won’t find a squad like that anywhere.  
+    <t xml:space="preserve">[name="Talulah"]  You want every last person on your team to be absolutely perfect? That's impossible. You won't find a squad like that anywhere.  
 </t>
   </si>
   <si>
@@ -844,7 +844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  The guerrilla fighters aren’t perfect either.
+    <t xml:space="preserve">[name="Talulah"]  The guerrilla fighters aren't perfect either.
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  Stand down, soldier. Don’t try to argue with her. 
+    <t xml:space="preserve">[name="Patriot"]  Stand down, soldier. Don't try to argue with her. 
 </t>
   </si>
   <si>
@@ -860,11 +860,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  If there’s more than one way for the Infected to survive, I’d rather see all of those ways work out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Talulah, you can’t always try to go about everything without making sacrifices.
+    <t xml:space="preserve">[name="Talulah"]  If there's more than one way for the Infected to survive, I'd rather see all of those ways work out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Talulah, you can't always try to go about everything without making sacrifices.
 </t>
   </si>
   <si>
@@ -876,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  All of us are prepared for the worst. You can’t win without spilling blood. 
+    <t xml:space="preserve">[name="Patriot"]  All of us are prepared for the worst. You can't win without spilling blood. 
 </t>
   </si>
   <si>
@@ -884,11 +884,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  The Empire isn’t going to sit by and watch the Infected unite and grow into a major force. If everything goes the way you pitched it and the Infected actually manage to take their fate into their own hands, then this war is inevitable. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  —You’re right.
+    <t xml:space="preserve">[name="Patriot"]  The Empire isn't going to sit by and watch the Infected unite and grow into a major force. If everything goes the way you pitched it and the Infected actually manage to take their fate into their own hands, then this war is inevitable. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  —You're right.
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  They don’t have an obligation to face anything that comes after that.
+    <t xml:space="preserve">[name="Talulah"]  They don't have an obligation to face anything that comes after that.
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  You don’t want to give me an answer.
+    <t xml:space="preserve">[name="Patriot"]  You don't want to give me an answer.
 </t>
   </si>
   <si>
@@ -924,11 +924,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re probably right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  But that doesn’t mean I’m going to sacrifice any lives.
+    <t xml:space="preserve">[name="Talulah"]  You're probably right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But that doesn't mean I'm going to sacrifice any lives.
 </t>
   </si>
   <si>
@@ -944,15 +944,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I simply have faith that the people of Ursus weren’t born selfish and cruel.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Perhaps you’ll come face to face with real evil one day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’ve already crossed paths with my old friend a few times.
+    <t xml:space="preserve">[name="Talulah"]  I simply have faith that the people of Ursus weren't born selfish and cruel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Perhaps you'll come face to face with real evil one day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I've already crossed paths with my old friend a few times.
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  But if the group of Infected we are dealing with aren’t fighting for the same cause as us, what gives us the right to annihilate them? It doesn’t make them our enemies. 
+    <t xml:space="preserve">[name="Talulah"]  But if the group of Infected we are dealing with aren't fighting for the same cause as us, what gives us the right to annihilate them? It doesn't make them our enemies. 
 </t>
   </si>
   <si>
@@ -996,15 +996,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Petrova, where’s FrostNova at right now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Petrova"]  ...She’s still at the mountain pass. She said she’s holding the fort there until we finish capturing the city. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Let’s rendezvous with them. I need to apologize to her personally. 
+    <t xml:space="preserve">[name="Talulah"]  Petrova, where's FrostNova at right now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  ...She's still at the mountain pass. She said she's holding the fort there until we finish capturing the city. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Let's rendezvous with them. I need to apologize to her personally. 
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  All things considered, she made the right decision. The nomadic city doesn’t have that much longer of a walk ahead of it. 
+    <t xml:space="preserve">[name="Patriot"]  All things considered, she made the right decision. The nomadic city doesn't have that much longer of a walk ahead of it. 
 </t>
   </si>
   <si>
@@ -1032,7 +1032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Nope, I’m fine.
+    <t xml:space="preserve">[name="Talulah"]  Nope, I'm fine.
 </t>
   </si>
   <si>
@@ -1048,19 +1048,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s better to have a name that we can use to protect ourselves when we are so far away from home.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Sometimes, if we don’t pick a name for ourselves, we will only ever be called the names others give us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sasha"]  But you haven’t ever given yourself another name.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  That’s only because I don’t want to.
+    <t xml:space="preserve">[name="Talulah"]  It's better to have a name that we can use to protect ourselves when we are so far away from home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sometimes, if we don't pick a name for ourselves, we will only ever be called the names others give us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  But you haven't ever given yourself another name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That's only because I don't want to.
 </t>
   </si>
   <si>
@@ -1080,19 +1080,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re right. That’s very likely.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  That’s why I insist on using my name. It’s just that the name doesn’t really have much meaning to everyone else. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  After all, who I am isn’t important to any of them. My name is only important to myself. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sasha"]  So what should I call you, then? When you put it like this, I’m not sure what I’m supposed to call you. 
+    <t xml:space="preserve">[name="Talulah"]  You're right. That's very likely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That's why I insist on using my name. It's just that the name doesn't really have much meaning to everyone else. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  After all, who I am isn't important to any of them. My name is only important to myself. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  So what should I call you, then? When you put it like this, I'm not sure what I'm supposed to call you. 
 </t>
   </si>
   <si>
@@ -1104,15 +1104,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m just a rebel, just a normal person.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  My name? That’s not important. No one should remember my name. This name shouldn’t become a symbol, and it shouldn’t come to have any other kind of power. It’s just my name, and it’s nothing more than a name.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  If you want to call me by a name, you can just call me Talulah for now. When you call me by my name, I’ll turn around and look back, but that’s all there is to it. 
+    <t xml:space="preserve">[name="Talulah"]  I'm just a rebel, just a normal person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  My name? That's not important. No one should remember my name. This name shouldn't become a symbol, and it shouldn't come to have any other kind of power. It's just my name, and it's nothing more than a name.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If you want to call me by a name, you can just call me Talulah for now. When you call me by my name, I'll turn around and look back, but that's all there is to it. 
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I want you call me Talulah because I want you to think of me as a friend. Good friends like we’re all peas in a pod. 
+    <t xml:space="preserve">[name="Talulah"]  I want you call me Talulah because I want you to think of me as a friend. Good friends like we're all peas in a pod. 
 </t>
   </si>
   <si>
@@ -1144,27 +1144,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sasha"]  But you’re killing bad guys. You’re fighting them. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  The girl who fights shouldn’t have a name. Everyone has their own fight. We are all fighters. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t hang your head and just follow in the fighters’ footsteps. Don’t do that! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Not everyone is like Patriot. All of us make mistakes. Look ahead of you, and look at where he’s going. You don’t just keep your eyes shut and follow whoever that has the more important-sounding title. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  The names you remember are your friends’ names. The names of the people you spend the most time with. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s FrostNova who gave you that extra spicy candy but still gritted her teeth and smiled. It’s your teacher, who made you that weird vegetable stew. It’s Patriot, who will never give up on training you.
+    <t xml:space="preserve">[name="Sasha"]  But you're killing bad guys. You're fighting them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The girl who fights shouldn't have a name. Everyone has their own fight. We are all fighters. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don't hang your head and just follow in the fighters' footsteps. Don't do that! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Not everyone is like Patriot. All of us make mistakes. Look ahead of you, and look at where he's going. You don't just keep your eyes shut and follow whoever that has the more important-sounding title. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The names you remember are your friends' names. The names of the people you spend the most time with. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's FrostNova who gave you that extra spicy candy but still gritted her teeth and smiled. It's your teacher, who made you that weird vegetable stew. It's Patriot, who will never give up on training you.
 </t>
   </si>
   <si>
@@ -1172,15 +1172,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  As fighters, we don’t have names.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eno"]  ...Talulah, I don’t get it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Well... I want you to trust me because I’m your friend, not because of my position.
+    <t xml:space="preserve">[name="Talulah"]  As fighters, we don't have names.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eno"]  ...Talulah, I don't get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well... I want you to trust me because I'm your friend, not because of my position.
 </t>
   </si>
   <si>
